--- a/PythonPrograms/testcase.xlsx
+++ b/PythonPrograms/testcase.xlsx
@@ -3,12 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B897150-703D-424C-92D7-06E4157B8613}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D4A6B-0DC4-4573-8C12-AD5E87750B97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map.contact_main" sheetId="3" r:id="rId1"/>
+    <sheet name="Address Transormation" sheetId="5" r:id="rId2"/>
+    <sheet name="phone Transformation" sheetId="7" r:id="rId3"/>
+    <sheet name="mainmultipletransformation" sheetId="9" r:id="rId4"/>
+    <sheet name="map.contact_main_multiple" sheetId="10" r:id="rId5"/>
+    <sheet name="map.contact_phone" sheetId="8" r:id="rId6"/>
+    <sheet name="map.contact_address" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -83,8 +89,78 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{60B23DCB-8ABE-4911-8D10-880A9C691D5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not used, not mapped in the application 
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{8DA78C3E-CC72-4DFC-A07A-601352721FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not used, not mapped in the application 
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="407">
   <si>
     <t>a</t>
   </si>
@@ -532,13 +608,814 @@
   </si>
   <si>
     <t>from crm.s_contact</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.START_DT</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.END_DT</t>
+  </si>
+  <si>
+    <t>AddressName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_ADDR_PER.ADDR_NAME </t>
+  </si>
+  <si>
+    <t>AddressType</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_TYPE_CD
+S_ADDR_PER.ADDR_TYPE_CD
+S_CONTACT.ROW_ID = S_ADDR_PER.X_CONTACT_ID  - Perform this join and get the related address types</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_LINE_2</t>
+  </si>
+  <si>
+    <t>AddressLine3</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_LINE_3</t>
+  </si>
+  <si>
+    <t>AddressLine4</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_LINE_4</t>
+  </si>
+  <si>
+    <t>AddressLine5</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_LINE_5</t>
+  </si>
+  <si>
+    <t>AddressNumber</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_NUM</t>
+  </si>
+  <si>
+    <t>NeighbourhoodName</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.NEIGHBORHOOD_NAME</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.DISTRICT</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.CITY</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.COUNTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_ADDR_PER.COUNTRY </t>
+  </si>
+  <si>
+    <t>CountryRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_ADDR_PER.COUNTRY_REGION </t>
+  </si>
+  <si>
+    <t>AddressEmail</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.EMAIL_ADDR</t>
+  </si>
+  <si>
+    <t>AddressFaxNumber</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.FAX_PH_NUM</t>
+  </si>
+  <si>
+    <t>AddressPhoneNumber</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.PH_NUM</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.state</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ZIPCODE</t>
+  </si>
+  <si>
+    <t>PostalCodeExtension</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ZIPCODE_EXT</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LATITUDE</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LONGITUDE</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_ADDR_PER.ALTITUDE </t>
+  </si>
+  <si>
+    <t>AddressCI</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_ADDR_CI</t>
+  </si>
+  <si>
+    <t>ActiveFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ACTIVE_FLG</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.COMMENTS</t>
+  </si>
+  <si>
+    <t>AddressMailCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_MAIL_CD</t>
+  </si>
+  <si>
+    <t>AddressSubCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDR_SUB_CD</t>
+  </si>
+  <si>
+    <t>Addressee</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ADDRESSEE</t>
+  </si>
+  <si>
+    <t>CrossStreet</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.CROSS_ST</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.DESCRIPTOR</t>
+  </si>
+  <si>
+    <t>GeoAccuracyCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEO_ACCURACY_CODE</t>
+  </si>
+  <si>
+    <t>GeoAccuracyMessage</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEO_ACCURACY_MSG</t>
+  </si>
+  <si>
+    <t>GeoAccuracyValue</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEO_ACCURACY_VAL</t>
+  </si>
+  <si>
+    <t>GeoCodeFailDescription</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEOCD_FAIL_DESC</t>
+  </si>
+  <si>
+    <t>GeoCodeValidFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEOCD_VALID_FLG</t>
+  </si>
+  <si>
+    <t>GeoCodeStatusCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEOCODE_STATUS_CD</t>
+  </si>
+  <si>
+    <t>GeographyCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.GEOGRAPHY_CODE</t>
+  </si>
+  <si>
+    <t>LandlordName</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LANDLORD_NAME</t>
+  </si>
+  <si>
+    <t>LandlordPhoneNumber</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LANDLORD_PH_NUM</t>
+  </si>
+  <si>
+    <t>LocationFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LOCATION_FLG</t>
+  </si>
+  <si>
+    <t>MetroArea</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.METRO_AREA</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.MSA</t>
+  </si>
+  <si>
+    <t>OwnershipCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.OWNERSHIP_CD</t>
+  </si>
+  <si>
+    <t>ParAddressID</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.PAR_ADDR_ID</t>
+  </si>
+  <si>
+    <t>PremiseFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.PREMISE_FLG</t>
+  </si>
+  <si>
+    <t>RuralRouteNumber</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.RURAL_ROUTE_NUM</t>
+  </si>
+  <si>
+    <t>TimeZoneCode</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.TIME_ZONE_CD</t>
+  </si>
+  <si>
+    <t>UTMEasting</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.UTM_EASTING</t>
+  </si>
+  <si>
+    <t>UTMNorthing</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.UTM_NORTHING</t>
+  </si>
+  <si>
+    <t>WorldArea</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.WORLD_AREA</t>
+  </si>
+  <si>
+    <t>AlumniAddressFlag</t>
+  </si>
+  <si>
+    <t>s_Addr_per.X_ALUM_ADDR_FLG</t>
+  </si>
+  <si>
+    <t>SourceLastUpdated</t>
+  </si>
+  <si>
+    <t>s_addr_per.LAST_UPD</t>
+  </si>
+  <si>
+    <t>s_addr_per.LAST_UPD_BY</t>
+  </si>
+  <si>
+    <t>RegionID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_ADDR_PER.X_REGION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>&amp; PR_REGION_ID</t>
+    </r>
+  </si>
+  <si>
+    <t>ShipAddressFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_SHIP_ADDR_FLG</t>
+  </si>
+  <si>
+    <t>AlignmentFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.ALIGNMENT_FLG</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.CREATED</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.CREATED_BY</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LAST_UPD</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.LAST_UPD_BY</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.DB_LAST_UPD</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.DB_LAST_UPD_SRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanse </t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.DISA_CLEANSE_FLG</t>
+  </si>
+  <si>
+    <t>SourceVerificationCD</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.VERIFICATION_CODE</t>
+  </si>
+  <si>
+    <t>SourceVerifiedFlag</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.VERIFIED_FLG</t>
+  </si>
+  <si>
+    <t>SourceVerifiedStatus</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.VERIFY_STATUS_MSG</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>SourceLastUpdAlumni</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_ALUM_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>SourceLastUpdByAlumni</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_ALUM_LAST_UPDATED_BY</t>
+  </si>
+  <si>
+    <t>CountryDesc</t>
+  </si>
+  <si>
+    <t>S_ADDR_PER.X_COUNTRY_DESC</t>
+  </si>
+  <si>
+    <t>from crm.S_ADDR_PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> START_DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> END_DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_NAME </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_TYPE_CD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_LINE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_LINE_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_LINE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_LINE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEIGHBORHOOD_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DISTRICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNTRY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNTRY_REGION </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMAIL_ADDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAX_PH_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PH_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZIPCODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZIPCODE_EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LATITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LONGITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALTITUDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_ADDR_CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACTIVE_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_MAIL_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDR_SUB_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDRESSEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CROSS_ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEO_ACCURACY_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEO_ACCURACY_MSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEO_ACCURACY_VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEOCD_FAIL_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEOCD_VALID_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEOCODE_STATUS_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEOGRAPHY_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LANDLORD_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LANDLORD_PH_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOCATION_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> METRO_AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWNERSHIP_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAR_ADDR_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PREMISE_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RURAL_ROUTE_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIME_ZONE_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTM_EASTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTM_NORTHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WORLD_AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_ALUM_ADDR_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAST_UPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAST_UPD_BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_REGION &amp; PR_REGION_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_SHIP_ADDR_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALIGNMENT_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATED_BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DB_LAST_UPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DB_LAST_UPD_SRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DISA_CLEANSE_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERIFICATION_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERIFIED_FLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERIFY_STATUS_MSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_ALUM_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_ALUM_LAST_UPDATED_BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X_COUNTRY_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneType </t>
+  </si>
+  <si>
+    <t>Assign corresponding PhoneType according to the source field being used (when not null/blank)</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>S_CONTACT.ALT_PH_NUM</t>
+  </si>
+  <si>
+    <t>Generate one row when field is not null/blank. Assign corresponding type for the record</t>
+  </si>
+  <si>
+    <t>S_CONTACT.CELL_PH_NUM</t>
+  </si>
+  <si>
+    <t>S_CONTACT.FAX_PH_NUM</t>
+  </si>
+  <si>
+    <t>S_CONTACT.HOME_PH_NUM</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PAGER_PH_NUM</t>
+  </si>
+  <si>
+    <t>Pager in CRM has a specific type, so in MDM, create a separate row per type too</t>
+  </si>
+  <si>
+    <t>S_CONTACT.WORK_PH_NUM</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PR_ALT_PH_NUM_ID</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PR_PHONE_ID</t>
+  </si>
+  <si>
+    <t>s_contact.X_ALUM_WK_PH_NUM</t>
+  </si>
+  <si>
+    <t>S_CONTACT.X_EMAIL_ADDR_CI</t>
+  </si>
+  <si>
+    <t>s_per_comm_Addr.addr</t>
+  </si>
+  <si>
+    <t>For s_per_comm_Addr generate a row for comm_mdeium_cd = 'Phone'</t>
+  </si>
+  <si>
+    <t>PhoneNumberExtension</t>
+  </si>
+  <si>
+    <t>S_EMP_PER.EMP_PH_NUM_EXT</t>
+  </si>
+  <si>
+    <t>Only relevant for Work Phone</t>
+  </si>
+  <si>
+    <t>PhonePin</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PAGER_PIN</t>
+  </si>
+  <si>
+    <t>Only relevant for pager (for now)</t>
+  </si>
+  <si>
+    <t>PhoneOwner</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PAGER_COMPANY_ID</t>
+  </si>
+  <si>
+    <t>PhoneDeviceTypeCode</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PAGER_TYPE_CD</t>
+  </si>
+  <si>
+    <t>PhoneAssetNumber</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PAGER_NUM</t>
+  </si>
+  <si>
+    <t>s_per_comm_Addr</t>
+  </si>
+  <si>
+    <t>S_EMP_PER</t>
+  </si>
+  <si>
+    <t>S_CONTACT</t>
+  </si>
+  <si>
+    <t>s_Contact_xm.sys_start</t>
+  </si>
+  <si>
+    <t>s_contact_xm.sys_end</t>
+  </si>
+  <si>
+    <t>ValueType</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s_contact_xm.type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S_CONTACT.INDUST_ID</t>
+    </r>
+  </si>
+  <si>
+    <t>ValueSequenceID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_Contact_xm.name </t>
+  </si>
+  <si>
+    <t>S_CONTACT.IndustryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_contact_xm.Created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_Contact_xm.created_by </t>
+  </si>
+  <si>
+    <t>s_Contact_xm.last_upd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_Contact_xm.last_upd_by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_Contact_xm.db_last_upd </t>
+  </si>
+  <si>
+    <t>s_Contact_xm.db_last_upd_src</t>
+  </si>
+  <si>
+    <t>ValueSequenceType</t>
+  </si>
+  <si>
+    <t>s_contact_xm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,8 +1452,34 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,8 +1498,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -619,12 +1540,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -640,6 +1585,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B9E1A2-9084-4F07-9D74-525C2DBACDB4}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2555,4 +3534,3139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA21F90-A4B6-4347-B940-FD78E3FFAC91}">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="59.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075DFB3D-025E-4718-B6C1-67B85E76BBBA}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE19A3-12B9-4E8C-808F-1AD9D9F92609}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482818BD-9C49-4DB0-A23B-CE4B34485E39}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="31"/>
+    <col min="2" max="2" width="23.54296875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22989744-40BB-4198-B68D-0C65BA3A08AD}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC21F9F-2FD7-4095-B4F6-CE82822F8760}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PythonPrograms/testcase.xlsx
+++ b/PythonPrograms/testcase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D4A6B-0DC4-4573-8C12-AD5E87750B97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC7A4BA-4F3D-4C8B-A7EB-64510312C320}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map.contact_main" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,15 @@
     <sheet name="map.contact_main_multiple" sheetId="10" r:id="rId5"/>
     <sheet name="map.contact_phone" sheetId="8" r:id="rId6"/>
     <sheet name="map.contact_address" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
+    <sheet name="map.contact_Relationship" sheetId="13" r:id="rId9"/>
+    <sheet name="rel" sheetId="18" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId11"/>
+    <sheet name="map.contact_job" sheetId="15" r:id="rId12"/>
+    <sheet name="job" sheetId="19" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="16" r:id="rId15"/>
+    <sheet name="map.contact_board" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -159,8 +168,113 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{5B763759-0738-4AFC-B08A-72DA02AD7FDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It Is null for all the records , do we move it to 1:M and it will get populated when it has the value 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{2C089D71-C96D-45AC-B8EB-478BB48BFBEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It Is null for all the records , do we move it to 1:M and it will get populated when it has the value 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{C6C6E346-A604-4E87-8D90-A50B68CDB8C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It Is null for all the records , do we move it to 1:M and it will get populated when it has the value 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="565">
   <si>
     <t>a</t>
   </si>
@@ -1410,12 +1524,604 @@
   <si>
     <t>s_contact_xm</t>
   </si>
+  <si>
+    <t>There will be a different table per DB Schema (MAP, STD)</t>
+  </si>
+  <si>
+    <t>1:M Relationship with Contact_Main</t>
+  </si>
+  <si>
+    <t>Column_name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>MDMID</t>
+  </si>
+  <si>
+    <t>VarChar</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>SourceCode</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Ex. CRM, ELQ, INS, BEM</t>
+  </si>
+  <si>
+    <t>SourceContactID</t>
+  </si>
+  <si>
+    <t>S_Contact.ROW_ID</t>
+  </si>
+  <si>
+    <t>ProcessID</t>
+  </si>
+  <si>
+    <t>MDMCreatedDate</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>MDMUpdatedDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AccountID,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Manager, Assistant, DT Regional contact, DT Regional Leader, CRM Party, Primary Billing Person, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Core Contact Team, Extended Contact Team</t>
+    </r>
+  </si>
+  <si>
+    <t>See RelationshipType to assign in the notes per EntityID
+For each primary account  on contact and all the accounts linked to the contact in job title table, create an entry in the table with relationship type 'Account'
+Update the primary flag for the primary account</t>
+  </si>
+  <si>
+    <t>RelationshipEntityID</t>
+  </si>
+  <si>
+    <t>Primary Account Id that the Contact is affiliated with</t>
+  </si>
+  <si>
+    <t>RelationshipType: "Account"</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PR_DEPT_OU_ID</t>
+  </si>
+  <si>
+    <t>Accounts related to a particular contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_party_per.party_id </t>
+  </si>
+  <si>
+    <t>Generate one row per party related to the contact.
+Make sure to not generate a duplicate to the primary, i.e. don't generate a new row if s_party_per.party_id = s_contact.pr_dept_ou_id</t>
+  </si>
+  <si>
+    <t>Alumni account ID</t>
+  </si>
+  <si>
+    <t>X_ALUM_ACCT_ID</t>
+  </si>
+  <si>
+    <t>Assistant Person ID</t>
+  </si>
+  <si>
+    <t>RelationshipType: "Assistant"</t>
+  </si>
+  <si>
+    <t>S_CONTACT.CON_ASST_PER_ID</t>
+  </si>
+  <si>
+    <t>Assistant Manager ID</t>
+  </si>
+  <si>
+    <t>RelationshipType: "Manager"</t>
+  </si>
+  <si>
+    <t>S_CONTACT.CON_MANAGER_PER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS Account ID </t>
+  </si>
+  <si>
+    <t>Relationship Type : "DMS Account"</t>
+  </si>
+  <si>
+    <t>S_CONTACT_X.X_DMS_ACC_ID</t>
+  </si>
+  <si>
+    <t>Generate one row per non null DMS Account ID linked to the contact.</t>
+  </si>
+  <si>
+    <t>Primary Activity the Contact is associated with</t>
+  </si>
+  <si>
+    <t>RelationshipType: "Activity"</t>
+  </si>
+  <si>
+    <t>S_CONTACT.PR_ACT_ID</t>
+  </si>
+  <si>
+    <t>Contact Team Member</t>
+  </si>
+  <si>
+    <t>RelationshipType: "ContactTeam"</t>
+  </si>
+  <si>
+    <t>S_USER.LOGIN</t>
+  </si>
+  <si>
+    <t>For Contact Team. Create a different row per contact team member (use SQL next to produce rows)
+Select A.ROW_ID, A.LAST_NAME, D.LOGIN
+from S_CONTACT A, S_POSTN B, S_POSTN_CON C, S_USER D 
+WHERE A.ROW_ID = C.CON_ID AND B.ROW_ID = C.POSTN_ID AND B.PR_EMP_ID = D.ROW_ID AND A.ROW_ID = SourceContactID</t>
+  </si>
+  <si>
+    <t>Relationship Type : "Industry"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+S_CONTACT.INDUST_ID</t>
+  </si>
+  <si>
+    <t>Create record for S_CONTACT.INDUST_ID</t>
+  </si>
+  <si>
+    <t>RelationshipEntityFirstName</t>
+  </si>
+  <si>
+    <t>NVarChar</t>
+  </si>
+  <si>
+    <t>A.ROW_ID, A.FST_NAME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Contact Team Create fetch contact team member name 
+Select A.ROW_ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A.FST_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, D.LOGIN
+from S_CONTACT A, S_POSTN B, S_POSTN_CON C, S_USER D
+WHERE A.ROW_ID = C.CON_ID AND B.ROW_ID = C.POSTN_ID AND B.PR_EMP_ID = D.ROW_ID AND A.ROW_ID = SourceContactID </t>
+    </r>
+  </si>
+  <si>
+    <t>RelationshipEntityLastName</t>
+  </si>
+  <si>
+    <t>A.ROW_ID, A.LAST_NAME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Contact Team Create fetch contact team member name 
+Select A.ROW_ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A.LAST_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, D.LOGIN
+from S_CONTACT A, S_POSTN B, S_POSTN_CON C, S_USER D 
+WHERE A.ROW_ID = C.CON_ID AND B.ROW_ID = C.POSTN_ID AND B.PR_EMP_ID = D.ROW_ID AND A.ROW_ID = SourceContactID </t>
+    </r>
+  </si>
+  <si>
+    <t>RelationshipEntityFullName</t>
+  </si>
+  <si>
+    <t>Used when source don't separate First Name and Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_CONTACT.CON_ASST_NAME
+</t>
+  </si>
+  <si>
+    <t>Applicable for Assistant Type only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the account name from account_main for the accountid </t>
+  </si>
+  <si>
+    <t>S_CONTACT_X.X_DMS_ACC_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the non null DMS Account ID , map the corrosponding Account name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_CONTACT.CON_MANAGER_NAME
+</t>
+  </si>
+  <si>
+    <t>Applicable for Manager Type only</t>
+  </si>
+  <si>
+    <t>RelationshipEntityEmployeeID</t>
+  </si>
+  <si>
+    <t>S_CONTACT.EMP_NUM (of the LOGIN)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Contact Team, go from the LOGIN (EntityID) and get EmployeeNumber
+Select LOGIN, ROW_ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EMP_NUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from S_CONTACT WHERE LOGIN IN (Select D.LOGIN
+from S_CONTACT A, S_POSTN B, S_POSTN_CON C, S_USER D
+WHERE A.ROW_ID = C.CON_ID AND B.ROW_ID = C.POSTN_ID AND B.PR_EMP_ID = D.ROW_ID AND A.ROW_ID = SourceContactID)</t>
+    </r>
+  </si>
+  <si>
+    <t>RelationshipEntityEmail</t>
+  </si>
+  <si>
+    <t>S_CONTACT.X_ASSISTANT_EMAIL</t>
+  </si>
+  <si>
+    <t>Applicable to assistance record only</t>
+  </si>
+  <si>
+    <t>RelationshipEntityPhone</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>S_CONTACT.ASST_PH_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelationshipRoleEN </t>
+  </si>
+  <si>
+    <t>RelationshipRoleFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelationshipEntityPrimaryFlag  </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Y  for primary entities 
+For Primary Account  - Should be updated to Y 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For CRM record, assign "Y" when  corresponding to S_CONTACT.PR_DEPT_OU_ID  should be marked as primary
+For CRM record, assign "Y" when  corresponding to S_CONTACT.PR_ACT_ID - Primary Activity
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VerificationStatus</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified – V
+Unverified – U
+Does not Exist - D
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelationshipEntityIndustryID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Duns number for the account linked to the contact</t>
+  </si>
+  <si>
+    <t>from map.contact_relationship</t>
+  </si>
+  <si>
+    <t>s_party_per.row_id</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drived </t>
+  </si>
+  <si>
+    <t>s_contact.user</t>
+  </si>
+  <si>
+    <t>s_contact</t>
+  </si>
+  <si>
+    <t>CRM transformation</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.PERSON_ID</t>
+  </si>
+  <si>
+    <t>s_party_per.START_DT</t>
+  </si>
+  <si>
+    <t>If available</t>
+  </si>
+  <si>
+    <t>s_party_per.end_Dt</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.PARTY_ID</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>S_ORG_EXT.NAME</t>
+  </si>
+  <si>
+    <t>Using S_PARTY_PER.PARTY_ID (Account ID), go to S_ORG_EXT table and extract the Name</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_JOB_TITLE</t>
+  </si>
+  <si>
+    <t>JobLevel</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_JOB_TITLE_LEVEL</t>
+  </si>
+  <si>
+    <t>JobDepartment</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_JOB_DEPT</t>
+  </si>
+  <si>
+    <t>BoardMemberFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER..BOARD_SEAT_FLG</t>
+  </si>
+  <si>
+    <t>JobStatus</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_JOB_STATUS</t>
+  </si>
+  <si>
+    <t>LevelOfInfluenceCode</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_LEVEL_INFLUENCE</t>
+  </si>
+  <si>
+    <t>KeyContactFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_DMS_KEY_CONTACT_FLG</t>
+  </si>
+  <si>
+    <t>AlumniJobFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_ALUM_FLG</t>
+  </si>
+  <si>
+    <t>PrimaryRelationID</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.PR_RELATION_ID</t>
+  </si>
+  <si>
+    <t>RelationshipTypeCode</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER REL_TYPE_CD</t>
+  </si>
+  <si>
+    <t>RelationshipSubTypeID</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.REL_SUB_TYPE_CD</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.RESPONSIBILITY</t>
+  </si>
+  <si>
+    <t>DirectRelationshipFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.DIRECT_REL_FLG</t>
+  </si>
+  <si>
+    <t>AdmitFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.ADMIT_FLG</t>
+  </si>
+  <si>
+    <t>ReferenceFlag</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.REFERENCE_FLG</t>
+  </si>
+  <si>
+    <t>ReferenceTypeCode</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.REFERENCE_TYPE_CD</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.COMMENTS</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.CREATED</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.CREATED_BY</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.LAST_UPD</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.LAST_UPD_BY</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.DB_LAST_UPD</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.DB_LAST_UPD_SRC</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_ALUM_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>S_PARTY_PER.X_ALUM_LAST_UPDATED_BY</t>
+  </si>
+  <si>
+    <t>from map.contact_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b</t>
+  </si>
+  <si>
+    <t>s_party_per</t>
+  </si>
+  <si>
+    <t>Table Name: Contact_Board</t>
+  </si>
+  <si>
+    <t>BoardSpecificCommittee</t>
+  </si>
+  <si>
+    <t>BoardRole</t>
+  </si>
+  <si>
+    <t>from map.contact_board</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,8 +2184,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,8 +2247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1564,12 +2301,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1619,6 +2369,48 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3536,6 +4328,2581 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41E2818-7F49-4050-BFB1-CA5FDBFEE2E8}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D60C55-EEB9-4ECC-88CA-2875E96C935A}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="93.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18AA2FA-CE8B-4E84-AD54-BA7BE3C72C06}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="37.08984375" customWidth="1"/>
+    <col min="6" max="6" width="33.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE551AE-A098-4EAE-8A96-858D27651B57}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="33.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9A6CE5-F9D5-4947-B9F3-8B4841F112AC}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="33.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1520681-9E18-4D09-87E1-EE9A0810AF3C}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.90625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="24" bestFit="1"/>
+    <col min="4" max="4" width="9.90625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="25">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="2">
+        <v>200</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37708080-15DE-4AF7-A021-7607CD52CDB2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA21F90-A4B6-4347-B940-FD78E3FFAC91}">
   <dimension ref="A1:B75"/>
@@ -4742,7 +8109,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4926,7 +8293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC21F9F-2FD7-4095-B4F6-CE82822F8760}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -6669,4 +10036,829 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FBAA19-00E9-42F0-A403-76829AAF87FD}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" style="44" customWidth="1"/>
+    <col min="2" max="5" width="10.36328125" style="44"/>
+    <col min="6" max="6" width="27.1796875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="40" style="44" customWidth="1"/>
+    <col min="9" max="9" width="56.54296875" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="45">
+        <v>50</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="56">
+        <v>50</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="3">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="3">
+        <v>200</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="107" x14ac:dyDescent="0.35">
+      <c r="A20" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="45">
+        <v>50</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="45">
+        <v>200</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="50">
+        <v>30</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="50">
+        <v>200</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" s="50">
+        <v>200</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="45">
+        <v>10</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="53">
+        <v>30</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="26">
+        <v>50</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CB9B72-DDC7-40E4-BEF9-6C9D6095E016}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PythonPrograms/testcase.xlsx
+++ b/PythonPrograms/testcase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE091917-3E78-4EBE-A834-C1501AA20CBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862C2FA-BB84-4521-9C12-D58F3D4E3DB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="530" windowWidth="19000" windowHeight="9670" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address Transormation" sheetId="5" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Sheet5" sheetId="16" r:id="rId15"/>
     <sheet name="map.contact_Relationship" sheetId="13" r:id="rId16"/>
     <sheet name="map.contact_board" sheetId="17" r:id="rId17"/>
+    <sheet name="map.contact_education" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -329,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="683">
   <si>
     <t>a</t>
   </si>
@@ -2707,6 +2708,33 @@
  and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
 and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
 and p1.BoardMemberFlag IS NOT NULL and p1.X_CONTACT_CLASS = 'Board'</t>
+  </si>
+  <si>
+    <t>SourceQuery: 'select row_id,'Degree' as EducationTypeCode from crm.s_Contact where 1=1 and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y'</t>
+  </si>
+  <si>
+    <t>SourceQuery: select row_id, CASE WHEN c1.DEGREE IS NULL THEN 'Not Provided' ELSE SRC1.DEGREE END EducationDegree from crm.s_Contact where 1=1 and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y'</t>
+  </si>
+  <si>
+    <t>from map.contact_education</t>
+  </si>
+  <si>
+    <t>SourceQuery: select row_id, c2.ATTRIB_04 as EducationBackground  from crm.s_Contact c1, crm.s_contact_x c2 where 1=1 and c1.row_id = c2.row_id  and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y'</t>
+  </si>
+  <si>
+    <t>SourceQuery: select row_id, c2.X_ALUM_HON_QUAL AS Qualifications  from crm.s_Contact c1, crm.s_contact_x c2 where 1=1 and c1.row_id = c2.row_id  and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetQuery: select row_id,EducationTypeCode </t>
+  </si>
+  <si>
+    <t>TargetQuery: select row_id,EducationDegree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetQuery: select row_id,EducationBackground </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetQuery: select row_id,Qualifications  </t>
   </si>
 </sst>
 </file>
@@ -2938,7 +2966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3088,6 +3116,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6968,8 +6999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37708080-15DE-4AF7-A021-7607CD52CDB2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7192,6 +7223,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5F77A-D9CB-4443-90ED-E21FB17168FC}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="48.90625" customWidth="1"/>
+    <col min="6" max="6" width="42.36328125" customWidth="1"/>
+    <col min="7" max="7" width="38.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/PythonPrograms/testcase.xlsx
+++ b/PythonPrograms/testcase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862C2FA-BB84-4521-9C12-D58F3D4E3DB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E520BF59-9702-481B-AC5D-83C7DFCE084C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="530" windowWidth="19000" windowHeight="9670" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="530" windowWidth="19000" windowHeight="9670" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address Transormation" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="map.contact_Relationship" sheetId="13" r:id="rId16"/>
     <sheet name="map.contact_board" sheetId="17" r:id="rId17"/>
     <sheet name="map.contact_education" sheetId="23" r:id="rId18"/>
+    <sheet name="map.contact_note" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="726">
   <si>
     <t>a</t>
   </si>
@@ -2735,6 +2736,137 @@
   </si>
   <si>
     <t xml:space="preserve">TargetQuery: select row_id,Qualifications  </t>
+  </si>
+  <si>
+    <t>SRC1.START_DT AS StartDate</t>
+  </si>
+  <si>
+    <t>SRC1.END_DT AS EndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CASE WHEN SRC1.NOTE_TYPE IS NULL THEN 'Not Provided'
+WHEN SRC1.NOTE_TYPE = '' THEN 'Not Provided' ELSE SRC1.NOTE_TYPE END NoteType</t>
+  </si>
+  <si>
+    <t>SRC1.ROW_ID AS NoteID</t>
+  </si>
+  <si>
+    <t>SRC1.NOTE AS Note</t>
+  </si>
+  <si>
+    <t>SRC1.PRIORITY_CD AS PriorityCode</t>
+  </si>
+  <si>
+    <t>SRC1.CATEGORY_CD AS CategoryCode</t>
+  </si>
+  <si>
+    <t>SRC1.PRIV_FLG AS PrivateFlag</t>
+  </si>
+  <si>
+    <t>SRC1.TARGET_OU_ID AS TargetOUID</t>
+  </si>
+  <si>
+    <t>SRC1.UNIT_CD AS UnitCode</t>
+  </si>
+  <si>
+    <t>SRC1.CREATED AS SourceCreatedDate</t>
+  </si>
+  <si>
+    <t>SRC1.CREATED_BY AS SourceCreatedBy</t>
+  </si>
+  <si>
+    <t>SRC1.LAST_UPD AS SourceLastUpdatedDate</t>
+  </si>
+  <si>
+    <t>SRC1.LAST_UPD_BY AS SourceLastUpdatedBy</t>
+  </si>
+  <si>
+    <t>SRC1.DB_LAST_UPD AS SourceDBLastUpdate</t>
+  </si>
+  <si>
+    <t>SRC1.DB_LAST_UPD_SRC AS SourceDBLastUpdateSource</t>
+  </si>
+  <si>
+    <t>SRC1.NOTE_TYPE</t>
+  </si>
+  <si>
+    <t>NoteYpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.START_DT </t>
+  </si>
+  <si>
+    <t>SRC1.END_DT</t>
+  </si>
+  <si>
+    <t>SRC1.NOTE</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>PriorityCode</t>
+  </si>
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>PrivateFlag</t>
+  </si>
+  <si>
+    <t>TargetOUID</t>
+  </si>
+  <si>
+    <t>SRC1.PRIORITY_CD</t>
+  </si>
+  <si>
+    <t>SRC1.CATEGORY_CD</t>
+  </si>
+  <si>
+    <t>SRC1.CREATED_BY</t>
+  </si>
+  <si>
+    <t>SRC1.LAST_UPD</t>
+  </si>
+  <si>
+    <t>SRC1.LAST_UPD_BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.PRIV_FLG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.UNIT_CD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UnitCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.CREATED </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourceCreatedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.DB_LAST_UPD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourceDBLastUpdateSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRC1.DB_LAST_UPD_SRC </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>NoteID</t>
+  </si>
+  <si>
+    <t>select row_id,</t>
+  </si>
+  <si>
+    <t>select sourcecontacid,</t>
   </si>
 </sst>
 </file>
@@ -7230,8 +7362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5F77A-D9CB-4443-90ED-E21FB17168FC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7358,6 +7490,418 @@
       </c>
       <c r="G5" s="54" t="s">
         <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35F570E-A1ED-4229-A653-DF0537F37BBC}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="76.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E6" t="s">
+        <v>722</v>
+      </c>
+      <c r="F6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" t="s">
+        <v>710</v>
+      </c>
+      <c r="G8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F9" t="s">
+        <v>714</v>
+      </c>
+      <c r="G9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" t="s">
+        <v>725</v>
+      </c>
+      <c r="E10" t="s">
+        <v>708</v>
+      </c>
+      <c r="F10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E11" t="s">
+        <v>716</v>
+      </c>
+      <c r="F11" t="s">
+        <v>715</v>
+      </c>
+      <c r="G11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" t="s">
+        <v>725</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>717</v>
+      </c>
+      <c r="G12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" t="s">
+        <v>718</v>
+      </c>
+      <c r="F13" t="s">
+        <v>711</v>
+      </c>
+      <c r="G13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" t="s">
+        <v>695</v>
+      </c>
+      <c r="D14" t="s">
+        <v>725</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>712</v>
+      </c>
+      <c r="G14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>713</v>
+      </c>
+      <c r="G15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" t="s">
+        <v>725</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>719</v>
+      </c>
+      <c r="G16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D17" t="s">
+        <v>725</v>
+      </c>
+      <c r="E17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F17" t="s">
+        <v>721</v>
+      </c>
+      <c r="G17" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
